--- a/Lab 4/PSO.xlsx
+++ b/Lab 4/PSO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD98EF5-624B-3848-AAD0-3AAF33EAD9E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01075E9D-366B-B148-B76D-1C595238FA55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>algorithm name</t>
   </si>
@@ -98,10 +98,7 @@
     <t>F10 mean</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>GA</t>
+    <t>PSO</t>
   </si>
 </sst>
 </file>
@@ -674,7 +671,7 @@
   <dimension ref="B1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -759,70 +756,48 @@
         <v>24</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>111165.4</v>
       </c>
       <c r="D4" s="2">
-        <v>1.227063</v>
+        <v>185621.3</v>
       </c>
       <c r="E4" s="2">
-        <v>888040.4</v>
+        <v>2920109000</v>
       </c>
       <c r="F4" s="2">
-        <v>5.5071009999999997E-2</v>
+        <v>255443.20000000001</v>
       </c>
       <c r="G4" s="2">
-        <v>713.83090000000004</v>
+        <v>48411.29</v>
       </c>
       <c r="H4" s="2">
-        <v>23.141480000000001</v>
+        <v>108856900000</v>
       </c>
       <c r="I4" s="2">
-        <v>7.8761409999999997E-3</v>
+        <v>4222.4189999999999</v>
       </c>
       <c r="J4" s="2">
-        <v>21.030100000000001</v>
+        <v>21.3933</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>553.92880000000002</v>
       </c>
       <c r="L4" s="2">
-        <v>57.567160000000001</v>
+        <v>961.68870000000004</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.58254030000000001</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.2625960000000001</v>
-      </c>
-      <c r="E5" s="2">
-        <v>747766.4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>13049.97</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3236.8330000000001</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1172.546</v>
-      </c>
-      <c r="I5" s="2">
-        <v>202.52549999999999</v>
-      </c>
-      <c r="J5" s="2">
-        <v>20.956579999999999</v>
-      </c>
-      <c r="K5" s="2">
-        <v>263.77670000000001</v>
-      </c>
-      <c r="L5" s="2">
-        <v>309.7226</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -830,43 +805,43 @@
       </c>
       <c r="C6" s="4">
         <f>MAX(C3:C4)</f>
-        <v>0</v>
+        <v>111165.4</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" ref="D6:L7" si="0">MAX(D3:D4)</f>
-        <v>33.9</v>
+        <f t="shared" ref="D6:L6" si="0">MAX(D3:D4)</f>
+        <v>185621.3</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>6410000</v>
+        <v>2920109000</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>272</v>
+        <v>255443.20000000001</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>713.83090000000004</v>
+        <v>48411.29</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>108856900000</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>5.3199999999999997E-2</v>
+        <v>4222.4189999999999</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>21.030100000000001</v>
+        <v>21.3933</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
-        <v>12.2</v>
+        <v>553.92880000000002</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>961.68870000000004</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -929,44 +904,44 @@
         <v>0</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" ref="C9:L11" si="1">IF(D$6=0,0,D3/D$6)</f>
-        <v>1</v>
+        <f t="shared" ref="D9:L10" si="1">IF(D$6=0,0,D3/D$6)</f>
+        <v>1.8262990292601118E-4</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.1951235381966906E-3</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.0648159747450705E-3</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>0.19052131254054705</v>
+        <v>2.8092620543678963E-3</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.9212663597805929E-10</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.2599412801050772E-5</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="1"/>
-        <v>0.99856871817062209</v>
+        <v>0.98161573950722891</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.2024491234252486E-2</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.15285611653750325</v>
       </c>
       <c r="M9" s="5">
         <f>SUM(C9:L9)</f>
-        <v>8.1890900307111689</v>
+        <v>1.162760778454148</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -975,19 +950,19 @@
       </c>
       <c r="C10" s="5">
         <f>IF(C$6=0,0,C4/C$6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>3.6196548672566373E-2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>0.13853984399375976</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>2.0246694852941175E-4</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
@@ -995,11 +970,11 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" si="1"/>
-        <v>0.72771949685534598</v>
+        <v>1</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="1"/>
-        <v>0.14804776315789475</v>
+        <v>1</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="1"/>
@@ -1007,15 +982,15 @@
       </c>
       <c r="K10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="1"/>
-        <v>0.39161333333333337</v>
+        <v>1</v>
       </c>
       <c r="M10" s="5">
         <f>SUM(C10:L10)</f>
-        <v>3.4423194529614296</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">

--- a/Lab 4/PSO.xlsx
+++ b/Lab 4/PSO.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01075E9D-366B-B148-B76D-1C595238FA55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A67E29C-330D-3047-9C1A-94BC876AD889}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -671,7 +671,7 @@
   <dimension ref="B1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -756,34 +756,34 @@
         <v>24</v>
       </c>
       <c r="C4" s="4">
-        <v>111165.4</v>
+        <v>2.2836430000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>185621.3</v>
+        <v>2379.4369999999999</v>
       </c>
       <c r="E4" s="2">
-        <v>2920109000</v>
+        <v>271526500</v>
       </c>
       <c r="F4" s="2">
-        <v>255443.20000000001</v>
+        <v>17406.96</v>
       </c>
       <c r="G4" s="2">
-        <v>48411.29</v>
+        <v>21894.75</v>
       </c>
       <c r="H4" s="2">
-        <v>108856900000</v>
+        <v>6290300000</v>
       </c>
       <c r="I4" s="2">
-        <v>4222.4189999999999</v>
+        <v>281.77210000000002</v>
       </c>
       <c r="J4" s="2">
-        <v>21.3933</v>
+        <v>20.954429999999999</v>
       </c>
       <c r="K4" s="2">
-        <v>553.92880000000002</v>
+        <v>227.06710000000001</v>
       </c>
       <c r="L4" s="2">
-        <v>961.68870000000004</v>
+        <v>453.4074</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -805,43 +805,43 @@
       </c>
       <c r="C6" s="4">
         <f>MAX(C3:C4)</f>
-        <v>111165.4</v>
+        <v>2.2836430000000001</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ref="D6:L6" si="0">MAX(D3:D4)</f>
-        <v>185621.3</v>
+        <v>2379.4369999999999</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>2920109000</v>
+        <v>271526500</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>255443.20000000001</v>
+        <v>17406.96</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>48411.29</v>
+        <v>21894.75</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>108856900000</v>
+        <v>6290300000</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>4222.4189999999999</v>
+        <v>281.77210000000002</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>21.3933</v>
+        <v>21</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
-        <v>553.92880000000002</v>
+        <v>227.06710000000001</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>961.68870000000004</v>
+        <v>453.4074</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -905,43 +905,43 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" ref="D9:L10" si="1">IF(D$6=0,0,D3/D$6)</f>
-        <v>1.8262990292601118E-4</v>
+        <v>1.424706768870115E-2</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>2.1951235381966906E-3</v>
+        <v>2.3607272218365425E-2</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>1.0648159747450705E-3</v>
+        <v>1.5625933534632125E-2</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>2.8092620543678963E-3</v>
+        <v>6.2115347286449945E-3</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="1"/>
-        <v>2.9212663597805929E-10</v>
+        <v>5.0554027629842778E-9</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="1"/>
-        <v>1.2599412801050772E-5</v>
+        <v>1.8880506622195737E-4</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="1"/>
-        <v>0.98161573950722891</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="1"/>
-        <v>2.2024491234252486E-2</v>
+        <v>5.3728611498539414E-2</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="1"/>
-        <v>0.15285611653750325</v>
+        <v>0.32421173540617115</v>
       </c>
       <c r="M9" s="5">
         <f>SUM(C9:L9)</f>
-        <v>1.162760778454148</v>
+        <v>1.4378209651966789</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
       </c>
       <c r="J10" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99782999999999988</v>
       </c>
       <c r="K10" s="5">
         <f t="shared" si="1"/>
@@ -990,7 +990,7 @@
       </c>
       <c r="M10" s="5">
         <f>SUM(C10:L10)</f>
-        <v>10</v>
+        <v>9.9978300000000004</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
